--- a/GUI/overview.xlsx
+++ b/GUI/overview.xlsx
@@ -6,12 +6,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gongchenyin/PycharmProjects/ra/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gongchenyin/PycharmProjects/ra/GUI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243F713B-DF7C-9741-A09C-B617A5BD5973}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3132E6D1-CDD7-8A43-9704-676CBA9862BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1100" windowWidth="27860" windowHeight="16060" xr2:uid="{98FD3126-53B1-B34A-8E9D-83B84A0C0A8A}"/>
+    <workbookView xWindow="0" yWindow="1100" windowWidth="27780" windowHeight="16060" xr2:uid="{98FD3126-53B1-B34A-8E9D-83B84A0C0A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魏楷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工号 姓名 性别 二级部门 部门 部门编号 民族 出生年月 出生地 学历 婚姻状况 政治面貌 岗位 岗位名称 职务 员工状态 入职日期 离职日期</t>
   </si>
   <si>
@@ -319,6 +315,10 @@
   </si>
   <si>
     <t>注：加粗为日期相关变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏锴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -878,7 +878,7 @@
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -898,22 +898,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17">
@@ -921,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="57" customHeight="1">
@@ -960,10 +960,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -972,22 +972,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17">
@@ -1017,20 +1017,20 @@
         <v>3</v>
       </c>
       <c r="B8" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>21</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17">
@@ -1041,7 +1041,7 @@
       <c r="E9" s="24"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17">
@@ -1052,7 +1052,7 @@
       <c r="E10" s="24"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="51">
@@ -1060,16 +1060,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>26</v>
-      </c>
       <c r="D11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>30</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -1079,7 +1079,7 @@
       <c r="B12" s="20"/>
       <c r="C12" s="19"/>
       <c r="D12" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="8"/>
@@ -1143,16 +1143,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="E1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1174,16 +1174,16 @@
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1209,122 +1209,122 @@
         <v>4</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="J3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="13" t="s">
+      <c r="R3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" s="13" t="s">
+      <c r="S3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="T3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="U3" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="U3" s="17" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
       <c r="C4" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>59</v>
-      </c>
       <c r="L4" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U4" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1335,52 +1335,52 @@
         <v>5</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="14" t="s">
+      <c r="J5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="K5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="18" t="s">
+      <c r="M5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="N5" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="O5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="P5" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="Q5" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="Q5" s="18" t="s">
+      <c r="R5" s="18" t="s">
         <v>68</v>
-      </c>
-      <c r="R5" s="18" t="s">
-        <v>69</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -1390,52 +1390,52 @@
       <c r="A6" s="31"/>
       <c r="B6" s="31"/>
       <c r="C6" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -1446,28 +1446,28 @@
         <v>4</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1486,25 +1486,25 @@
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
